--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl2-Cxcr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl2-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.396148981586282</v>
+        <v>2.575111333333334</v>
       </c>
       <c r="H2">
-        <v>0.396148981586282</v>
+        <v>7.725334</v>
       </c>
       <c r="I2">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196255</v>
       </c>
       <c r="J2">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196256</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.35968498539371</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N2">
-        <v>2.35968498539371</v>
+        <v>2.4177</v>
       </c>
       <c r="O2">
-        <v>0.3183623724156452</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="P2">
-        <v>0.3183623724156452</v>
+        <v>0.0945145627367433</v>
       </c>
       <c r="Q2">
-        <v>0.9347868038281588</v>
+        <v>2.075282223533333</v>
       </c>
       <c r="R2">
-        <v>0.9347868038281588</v>
+        <v>18.6775400118</v>
       </c>
       <c r="S2">
-        <v>0.0001794816275643027</v>
+        <v>0.0002705507263004269</v>
       </c>
       <c r="T2">
-        <v>0.0001794816275643027</v>
+        <v>0.000270550726300427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.396148981586282</v>
+        <v>2.575111333333334</v>
       </c>
       <c r="H3">
-        <v>0.396148981586282</v>
+        <v>7.725334</v>
       </c>
       <c r="I3">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196255</v>
       </c>
       <c r="J3">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196256</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.05226187091684</v>
+        <v>2.375759</v>
       </c>
       <c r="N3">
-        <v>5.05226187091684</v>
+        <v>7.127277</v>
       </c>
       <c r="O3">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308754</v>
       </c>
       <c r="P3">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308755</v>
       </c>
       <c r="Q3">
-        <v>2.00144839487091</v>
+        <v>6.117843926168667</v>
       </c>
       <c r="R3">
-        <v>2.00144839487091</v>
+        <v>55.060595335518</v>
       </c>
       <c r="S3">
-        <v>0.0003842835755985145</v>
+        <v>0.0007975720597652014</v>
       </c>
       <c r="T3">
-        <v>0.0003842835755985145</v>
+        <v>0.0007975720597652018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>366.39644442293</v>
+        <v>2.575111333333334</v>
       </c>
       <c r="H4">
-        <v>366.39644442293</v>
+        <v>7.725334</v>
       </c>
       <c r="I4">
-        <v>0.521423947882187</v>
+        <v>0.002862529524196255</v>
       </c>
       <c r="J4">
-        <v>0.521423947882187</v>
+        <v>0.002862529524196256</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.35968498539371</v>
+        <v>5.345069333333334</v>
       </c>
       <c r="N4">
-        <v>2.35968498539371</v>
+        <v>16.035208</v>
       </c>
       <c r="O4">
-        <v>0.3183623724156452</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="P4">
-        <v>0.3183623724156452</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="Q4">
-        <v>864.5801886064288</v>
+        <v>13.76414861771911</v>
       </c>
       <c r="R4">
-        <v>864.5801886064288</v>
+        <v>123.877337559472</v>
       </c>
       <c r="S4">
-        <v>0.1660017650821048</v>
+        <v>0.001794406738130627</v>
       </c>
       <c r="T4">
-        <v>0.1660017650821048</v>
+        <v>0.001794406738130627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>366.39644442293</v>
+        <v>378.538676</v>
       </c>
       <c r="H5">
-        <v>366.39644442293</v>
+        <v>1135.616028</v>
       </c>
       <c r="I5">
-        <v>0.521423947882187</v>
+        <v>0.4207888498154877</v>
       </c>
       <c r="J5">
-        <v>0.521423947882187</v>
+        <v>0.4207888498154878</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.05226187091684</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N5">
-        <v>5.05226187091684</v>
+        <v>2.4177</v>
       </c>
       <c r="O5">
-        <v>0.6816376275843548</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="P5">
-        <v>0.6816376275843548</v>
+        <v>0.0945145627367433</v>
       </c>
       <c r="Q5">
-        <v>1851.13078579747</v>
+        <v>305.0643189883999</v>
       </c>
       <c r="R5">
-        <v>1851.13078579747</v>
+        <v>2745.5788708956</v>
       </c>
       <c r="S5">
-        <v>0.3554221828000822</v>
+        <v>0.03977067414480796</v>
       </c>
       <c r="T5">
-        <v>0.3554221828000822</v>
+        <v>0.03977067414480797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>115.440029325556</v>
+        <v>378.538676</v>
       </c>
       <c r="H6">
-        <v>115.440029325556</v>
+        <v>1135.616028</v>
       </c>
       <c r="I6">
-        <v>0.1642843339524498</v>
+        <v>0.4207888498154877</v>
       </c>
       <c r="J6">
-        <v>0.1642843339524498</v>
+        <v>0.4207888498154878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.35968498539371</v>
+        <v>2.375759</v>
       </c>
       <c r="N6">
-        <v>2.35968498539371</v>
+        <v>7.127277</v>
       </c>
       <c r="O6">
-        <v>0.3183623724156452</v>
+        <v>0.2786249200308754</v>
       </c>
       <c r="P6">
-        <v>0.3183623724156452</v>
+        <v>0.2786249200308755</v>
       </c>
       <c r="Q6">
-        <v>272.402103912924</v>
+        <v>899.3166663550838</v>
       </c>
       <c r="R6">
-        <v>272.402103912924</v>
+        <v>8093.849997195755</v>
       </c>
       <c r="S6">
-        <v>0.05230195030782605</v>
+        <v>0.1172422596297243</v>
       </c>
       <c r="T6">
-        <v>0.05230195030782605</v>
+        <v>0.1172422596297243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>115.440029325556</v>
+        <v>378.538676</v>
       </c>
       <c r="H7">
-        <v>115.440029325556</v>
+        <v>1135.616028</v>
       </c>
       <c r="I7">
-        <v>0.1642843339524498</v>
+        <v>0.4207888498154877</v>
       </c>
       <c r="J7">
-        <v>0.1642843339524498</v>
+        <v>0.4207888498154878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.05226187091684</v>
+        <v>5.345069333333334</v>
       </c>
       <c r="N7">
-        <v>5.05226187091684</v>
+        <v>16.035208</v>
       </c>
       <c r="O7">
-        <v>0.6816376275843548</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="P7">
-        <v>0.6816376275843548</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="Q7">
-        <v>583.2332585390284</v>
+        <v>2023.315468568203</v>
       </c>
       <c r="R7">
-        <v>583.2332585390284</v>
+        <v>18209.83921711382</v>
       </c>
       <c r="S7">
-        <v>0.1119823836446238</v>
+        <v>0.2637759160409554</v>
       </c>
       <c r="T7">
-        <v>0.1119823836446238</v>
+        <v>0.2637759160409555</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,184 +906,184 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>94.5737157357929</v>
+        <v>280.8555153333334</v>
       </c>
       <c r="H8">
-        <v>94.5737157357929</v>
+        <v>842.566546</v>
       </c>
       <c r="I8">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="J8">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.35968498539371</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N8">
-        <v>2.35968498539371</v>
+        <v>2.4177</v>
       </c>
       <c r="O8">
-        <v>0.3183623724156452</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="P8">
-        <v>0.3183623724156452</v>
+        <v>0.0945145627367433</v>
       </c>
       <c r="Q8">
-        <v>223.1641770346433</v>
+        <v>226.3414598071333</v>
       </c>
       <c r="R8">
-        <v>223.1641770346433</v>
+        <v>2037.0731382642</v>
       </c>
       <c r="S8">
-        <v>0.04284813343983515</v>
+        <v>0.02950771979266425</v>
       </c>
       <c r="T8">
-        <v>0.04284813343983515</v>
+        <v>0.02950771979266425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>94.5737157357929</v>
+        <v>280.8555153333334</v>
       </c>
       <c r="H9">
-        <v>94.5737157357929</v>
+        <v>842.566546</v>
       </c>
       <c r="I9">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="J9">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.05226187091684</v>
+        <v>2.375759</v>
       </c>
       <c r="N9">
-        <v>5.05226187091684</v>
+        <v>7.127277</v>
       </c>
       <c r="O9">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308754</v>
       </c>
       <c r="P9">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308755</v>
       </c>
       <c r="Q9">
-        <v>477.8111780028744</v>
+        <v>667.2450182528047</v>
       </c>
       <c r="R9">
-        <v>477.8111780028744</v>
+        <v>6005.205164275242</v>
       </c>
       <c r="S9">
-        <v>0.09174105533494191</v>
+        <v>0.08698750572887483</v>
       </c>
       <c r="T9">
-        <v>0.09174105533494191</v>
+        <v>0.08698750572887484</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>119.244640755233</v>
+        <v>280.8555153333334</v>
       </c>
       <c r="H10">
-        <v>119.244640755233</v>
+        <v>842.566546</v>
       </c>
       <c r="I10">
-        <v>0.169698730140012</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="J10">
-        <v>0.169698730140012</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.35968498539371</v>
+        <v>5.345069333333334</v>
       </c>
       <c r="N10">
-        <v>2.35968498539371</v>
+        <v>16.035208</v>
       </c>
       <c r="O10">
-        <v>0.3183623724156452</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="P10">
-        <v>0.3183623724156452</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="Q10">
-        <v>281.3797883787901</v>
+        <v>1501.19220210573</v>
       </c>
       <c r="R10">
-        <v>281.3797883787901</v>
+        <v>13510.72981895157</v>
       </c>
       <c r="S10">
-        <v>0.05402569032329659</v>
+        <v>0.1957076661625049</v>
       </c>
       <c r="T10">
-        <v>0.05402569032329659</v>
+        <v>0.1957076661625049</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>119.244640755233</v>
+        <v>98.90178066666668</v>
       </c>
       <c r="H11">
-        <v>119.244640755233</v>
+        <v>296.705342</v>
       </c>
       <c r="I11">
-        <v>0.169698730140012</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="J11">
-        <v>0.169698730140012</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>5.05226187091684</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N11">
-        <v>5.05226187091684</v>
+        <v>2.4177</v>
       </c>
       <c r="O11">
-        <v>0.6816376275843548</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="P11">
-        <v>0.6816376275843548</v>
+        <v>0.0945145627367433</v>
       </c>
       <c r="Q11">
-        <v>602.4551517988399</v>
+        <v>79.70494503926668</v>
       </c>
       <c r="R11">
-        <v>602.4551517988399</v>
+        <v>717.3445053534001</v>
       </c>
       <c r="S11">
-        <v>0.1156730398167155</v>
+        <v>0.01039098707904624</v>
       </c>
       <c r="T11">
-        <v>0.1156730398167155</v>
+        <v>0.01039098707904624</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.63336412577723</v>
+        <v>98.90178066666668</v>
       </c>
       <c r="H12">
-        <v>6.63336412577723</v>
+        <v>296.705342</v>
       </c>
       <c r="I12">
-        <v>0.00944003404741112</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="J12">
-        <v>0.00944003404741112</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.35968498539371</v>
+        <v>2.375759</v>
       </c>
       <c r="N12">
-        <v>2.35968498539371</v>
+        <v>7.127277</v>
       </c>
       <c r="O12">
-        <v>0.3183623724156452</v>
+        <v>0.2786249200308754</v>
       </c>
       <c r="P12">
-        <v>0.3183623724156452</v>
+        <v>0.2786249200308755</v>
       </c>
       <c r="Q12">
-        <v>15.6526497302458</v>
+        <v>234.9667955348594</v>
       </c>
       <c r="R12">
-        <v>15.6526497302458</v>
+        <v>2114.701159813734</v>
       </c>
       <c r="S12">
-        <v>0.00300535163501827</v>
+        <v>0.03063218894642983</v>
       </c>
       <c r="T12">
-        <v>0.00300535163501827</v>
+        <v>0.03063218894642984</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.63336412577723</v>
+        <v>98.90178066666668</v>
       </c>
       <c r="H13">
-        <v>6.63336412577723</v>
+        <v>296.705342</v>
       </c>
       <c r="I13">
-        <v>0.00944003404741112</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="J13">
-        <v>0.00944003404741112</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.05226187091684</v>
+        <v>5.345069333333334</v>
       </c>
       <c r="N13">
-        <v>5.05226187091684</v>
+        <v>16.035208</v>
       </c>
       <c r="O13">
-        <v>0.6816376275843548</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="P13">
-        <v>0.6816376275843548</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="Q13">
-        <v>33.51349264857191</v>
+        <v>528.6368748534597</v>
       </c>
       <c r="R13">
-        <v>33.51349264857191</v>
+        <v>4757.731873681137</v>
       </c>
       <c r="S13">
-        <v>0.00643468241239285</v>
+        <v>0.06891741702354257</v>
       </c>
       <c r="T13">
-        <v>0.00643468241239285</v>
+        <v>0.06891741702354257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>132.0794193333333</v>
+      </c>
+      <c r="H14">
+        <v>396.238258</v>
+      </c>
+      <c r="I14">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="J14">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.8058999999999999</v>
+      </c>
+      <c r="N14">
+        <v>2.4177</v>
+      </c>
+      <c r="O14">
+        <v>0.09451456273674329</v>
+      </c>
+      <c r="P14">
+        <v>0.0945145627367433</v>
+      </c>
+      <c r="Q14">
+        <v>106.4428040407333</v>
+      </c>
+      <c r="R14">
+        <v>957.9852363666</v>
+      </c>
+      <c r="S14">
+        <v>0.01387675257664147</v>
+      </c>
+      <c r="T14">
+        <v>0.01387675257664147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>132.0794193333333</v>
+      </c>
+      <c r="H15">
+        <v>396.238258</v>
+      </c>
+      <c r="I15">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="J15">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.375759</v>
+      </c>
+      <c r="N15">
+        <v>7.127277</v>
+      </c>
+      <c r="O15">
+        <v>0.2786249200308754</v>
+      </c>
+      <c r="P15">
+        <v>0.2786249200308755</v>
+      </c>
+      <c r="Q15">
+        <v>313.7888691959407</v>
+      </c>
+      <c r="R15">
+        <v>2824.099822763466</v>
+      </c>
+      <c r="S15">
+        <v>0.0409080777078163</v>
+      </c>
+      <c r="T15">
+        <v>0.04090807770781631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>132.0794193333333</v>
+      </c>
+      <c r="H16">
+        <v>396.238258</v>
+      </c>
+      <c r="I16">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="J16">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N16">
+        <v>16.035208</v>
+      </c>
+      <c r="O16">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P16">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q16">
+        <v>705.9736538430739</v>
+      </c>
+      <c r="R16">
+        <v>6353.762884587665</v>
+      </c>
+      <c r="S16">
+        <v>0.09203648671505228</v>
+      </c>
+      <c r="T16">
+        <v>0.09203648671505231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.642431333333334</v>
+      </c>
+      <c r="H17">
+        <v>19.927294</v>
+      </c>
+      <c r="I17">
+        <v>0.007383818927743304</v>
+      </c>
+      <c r="J17">
+        <v>0.007383818927743305</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.8058999999999999</v>
+      </c>
+      <c r="N17">
+        <v>2.4177</v>
+      </c>
+      <c r="O17">
+        <v>0.09451456273674329</v>
+      </c>
+      <c r="P17">
+        <v>0.0945145627367433</v>
+      </c>
+      <c r="Q17">
+        <v>5.353135411533334</v>
+      </c>
+      <c r="R17">
+        <v>48.1782187038</v>
+      </c>
+      <c r="S17">
+        <v>0.0006978784172829471</v>
+      </c>
+      <c r="T17">
+        <v>0.0006978784172829473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.642431333333334</v>
+      </c>
+      <c r="H18">
+        <v>19.927294</v>
+      </c>
+      <c r="I18">
+        <v>0.007383818927743304</v>
+      </c>
+      <c r="J18">
+        <v>0.007383818927743305</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.375759</v>
+      </c>
+      <c r="N18">
+        <v>7.127277</v>
+      </c>
+      <c r="O18">
+        <v>0.2786249200308754</v>
+      </c>
+      <c r="P18">
+        <v>0.2786249200308755</v>
+      </c>
+      <c r="Q18">
+        <v>15.78081602204867</v>
+      </c>
+      <c r="R18">
+        <v>142.027344198438</v>
+      </c>
+      <c r="S18">
+        <v>0.002057315958264942</v>
+      </c>
+      <c r="T18">
+        <v>0.002057315958264943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.642431333333334</v>
+      </c>
+      <c r="H19">
+        <v>19.927294</v>
+      </c>
+      <c r="I19">
+        <v>0.007383818927743304</v>
+      </c>
+      <c r="J19">
+        <v>0.007383818927743305</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N19">
+        <v>16.035208</v>
+      </c>
+      <c r="O19">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P19">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q19">
+        <v>35.50425601857245</v>
+      </c>
+      <c r="R19">
+        <v>319.538304167152</v>
+      </c>
+      <c r="S19">
+        <v>0.004628624552195414</v>
+      </c>
+      <c r="T19">
+        <v>0.004628624552195415</v>
       </c>
     </row>
   </sheetData>
